--- a/Task 19/solution_5414(Есть вопросы).xlsx
+++ b/Task 19/solution_5414(Есть вопросы).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Django\2022\preparation_for_the_EGE\Task 19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94352C5-58E8-4BCD-A478-B2FD564AECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E3567-EF96-4394-8584-52E621F16B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,21 +91,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -151,49 +137,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -473,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +430,7 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -497,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>98</v>
       </c>
@@ -517,7 +461,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>QUOTIENT(A2,3)</f>
         <v>32</v>
@@ -531,7 +475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -545,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43</v>
       </c>
@@ -572,7 +516,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>QUOTIENT(B6,3)</f>
         <v>11</v>
@@ -586,7 +530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>QUOTIENT(A6,3)</f>
         <v>14</v>
@@ -604,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>QUOTIENT(B8,3)</f>
         <v>4</v>
@@ -618,12 +562,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K10" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -666,48 +610,30 @@
       <c r="Q12">
         <v>129</v>
       </c>
-      <c r="R12">
-        <v>42</v>
-      </c>
-      <c r="S12">
-        <v>41</v>
-      </c>
-      <c r="T12">
-        <v>38</v>
-      </c>
-      <c r="U12">
-        <v>37</v>
-      </c>
-      <c r="V12">
-        <v>34</v>
-      </c>
-      <c r="W12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <f>A13-10</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <f>B13-10</f>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <f>C13-10</f>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <f>MIN(D13-10,QUOTIENT(D13,3))</f>
-        <v>-8</v>
+        <f t="shared" ref="E13:E20" si="0">MIN(D13-10,QUOTIENT(D13,3))</f>
+        <v>7</v>
       </c>
       <c r="F13">
-        <f>D13</f>
-        <v>2</v>
+        <f t="shared" ref="F13:F20" si="1">D13</f>
+        <v>22</v>
       </c>
       <c r="I13">
         <v>62</v>
@@ -739,117 +665,105 @@
       <c r="R13">
         <v>53</v>
       </c>
-      <c r="S13">
-        <v>40</v>
-      </c>
-      <c r="T13">
-        <v>39</v>
-      </c>
-      <c r="U13">
-        <v>36</v>
-      </c>
-      <c r="V13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>QUOTIENT(C13,3)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <f>MIN(D14-10,QUOTIENT(D14,3))</f>
-        <v>-6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f>D14</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>QUOTIENT(B13,3)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <f>C15-10</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <f>MIN(D15-10,QUOTIENT(D15,3))</f>
-        <v>-13</v>
+        <f t="shared" si="0"/>
+        <v>-6</v>
       </c>
       <c r="F15">
-        <f>D15</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16">
         <f>QUOTIENT(C15,3)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <f>MIN(D16-10,QUOTIENT(D16,3))</f>
-        <v>-8</v>
+        <f t="shared" si="0"/>
+        <v>-6</v>
       </c>
       <c r="F16">
-        <f>D16</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>QUOTIENT(A13,3)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <f>B17-10</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <f>C17-10</f>
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E17">
-        <f>MIN(D17-10,QUOTIENT(D17,3))</f>
-        <v>-20</v>
+        <f t="shared" si="0"/>
+        <v>-13</v>
       </c>
       <c r="F17">
-        <f>D17</f>
-        <v>-10</v>
+        <f t="shared" si="1"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>QUOTIENT(C17,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <f>MIN(D18-10,QUOTIENT(D18,3))</f>
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-8</v>
       </c>
       <c r="F18">
-        <f>D18</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>QUOTIENT(B17,3)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f>C19-10</f>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E19">
-        <f>MIN(D19-10,QUOTIENT(D19,3))</f>
-        <v>-17</v>
+        <f t="shared" si="0"/>
+        <v>-15</v>
       </c>
       <c r="F19">
-        <f>D19</f>
-        <v>-7</v>
+        <f t="shared" si="1"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -858,87 +772,47 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>MIN(D20-10,QUOTIENT(D20,3))</f>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="F20">
-        <f>D20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C13 C15 C17 C19">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D6:D9">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E6:E9">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F20">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E20">
+  <conditionalFormatting sqref="E13:E20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13 C19 C17 C15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F13:F20">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
